--- a/the PwC Approach Final Project/security.xlsx
+++ b/the PwC Approach Final Project/security.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b03a39e68183e059/Documents/the PwC Approach Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\OneDrive\Documents\the PwC Approach Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="26">
   <si>
     <t>Well-heeled Affluents</t>
   </si>
@@ -90,6 +94,18 @@
   </si>
   <si>
     <t xml:space="preserve">Price Is More Important than Brand Names- Agree </t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of VariableCount</t>
   </si>
 </sst>
 </file>
@@ -125,8 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +163,596 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dennis" refreshedDate="44600.703276504632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="84">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C85" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Segments" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Well-heeled Affluents"/>
+        <s v="Prosperous Acheivers"/>
+        <s v="Young Affluent Mobiles"/>
+        <s v="Upscale Matures"/>
+        <s v="Elite Households"/>
+        <s v="Young Upscale Families"/>
+        <s v="Elder Midscale Class"/>
+        <s v="Comfortable Retirees"/>
+        <s v="Mass Markets"/>
+        <s v="Young Urban Masses"/>
+        <s v="Diverse Workers"/>
+        <s v="Modest Families"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="VariableName" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Would like to buy Security Devices"/>
+        <s v="Will Switch Brands to Use a Cents-Off Coupon- Agree "/>
+        <s v="Buy Based on Quality- Not Price- Agree "/>
+        <s v="I am Among First of my Friends to try new Technology Products- Agree "/>
+        <s v="I am Willing to Pay More for Top Quality Electronics- Agree "/>
+        <s v="Prefer Products With the Latest Technology- Agree "/>
+        <s v="Price Is More Important than Brand Names- Agree "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="VariableCount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="121346" maxValue="3308650"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="84">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1176191"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="849727"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="427550"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="451118"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="773110"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="367450"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="424447"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="121346"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="807344"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="136007"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="327728"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="224353"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="522831"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="704491"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1345477"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="596014"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="887918"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1472441"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="1081551"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="759639"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="2168742"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="1686936"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="2286425"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="1076186"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="933276"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="1345702"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1901962"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1068362"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1349997"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="2221763"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1709107"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="1094782"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="2792014"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="2069153"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2784539"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="1108450"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="343055"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="411378"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="888932"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="285041"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="551943"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="848484"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="403429"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="287818"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="1296515"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="1025455"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="1201534"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="610257"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="756944"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="953399"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1685141"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="647027"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1153657"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1768303"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="1001329"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="537362"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="2239097"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="1705368"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="1920240"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="867047"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="673420"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="894410"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1583489"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="667994"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="1022352"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="1682411"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="1141297"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <n v="726376"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="2229801"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="1651877"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <n v="2082794"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="932759"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="874881"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1234963"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="1882546"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="1015715"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <n v="1377813"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="2281066"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="1787397"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <n v="1240547"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="3152588"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="6"/>
+    <n v="2332275"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="3308650"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+    <n v="1332094"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of VariableCount" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,10 +1018,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1094782</v>
+      </c>
+      <c r="C3" s="3">
+        <v>287818</v>
+      </c>
+      <c r="D3" s="3">
+        <v>537362</v>
+      </c>
+      <c r="E3" s="3">
+        <v>726376</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1240547</v>
+      </c>
+      <c r="G3" s="3">
+        <v>759639</v>
+      </c>
+      <c r="H3" s="3">
+        <v>121346</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4767870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2784539</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1201534</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1920240</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2082794</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3308650</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2286425</v>
+      </c>
+      <c r="H4" s="3">
+        <v>327728</v>
+      </c>
+      <c r="I4" s="3">
+        <v>13911910</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1709107</v>
+      </c>
+      <c r="C5" s="3">
+        <v>403429</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1001329</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1141297</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1787397</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1081551</v>
+      </c>
+      <c r="H5" s="3">
+        <v>424447</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7548557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1349997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>551943</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1153657</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1022352</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1377813</v>
+      </c>
+      <c r="G6" s="3">
+        <v>887918</v>
+      </c>
+      <c r="H6" s="3">
+        <v>773110</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7116790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2792014</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1296515</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2239097</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2229801</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3152588</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2168742</v>
+      </c>
+      <c r="H7" s="3">
+        <v>807344</v>
+      </c>
+      <c r="I7" s="3">
+        <v>14686101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1108450</v>
+      </c>
+      <c r="C8" s="3">
+        <v>610257</v>
+      </c>
+      <c r="D8" s="3">
+        <v>867047</v>
+      </c>
+      <c r="E8" s="3">
+        <v>932759</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1332094</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1076186</v>
+      </c>
+      <c r="H8" s="3">
+        <v>224353</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6151146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1345702</v>
+      </c>
+      <c r="C9" s="3">
+        <v>411378</v>
+      </c>
+      <c r="D9" s="3">
+        <v>953399</v>
+      </c>
+      <c r="E9" s="3">
+        <v>894410</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1234963</v>
+      </c>
+      <c r="G9" s="3">
+        <v>704491</v>
+      </c>
+      <c r="H9" s="3">
+        <v>849727</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6394070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1068362</v>
+      </c>
+      <c r="C10" s="3">
+        <v>285041</v>
+      </c>
+      <c r="D10" s="3">
+        <v>647027</v>
+      </c>
+      <c r="E10" s="3">
+        <v>667994</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1015715</v>
+      </c>
+      <c r="G10" s="3">
+        <v>596014</v>
+      </c>
+      <c r="H10" s="3">
+        <v>451118</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4731271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>933276</v>
+      </c>
+      <c r="C11" s="3">
+        <v>343055</v>
+      </c>
+      <c r="D11" s="3">
+        <v>756944</v>
+      </c>
+      <c r="E11" s="3">
+        <v>673420</v>
+      </c>
+      <c r="F11" s="3">
+        <v>874881</v>
+      </c>
+      <c r="G11" s="3">
+        <v>522831</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1176191</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5280598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1901962</v>
+      </c>
+      <c r="C12" s="3">
+        <v>888932</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1685141</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1583489</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1882546</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1345477</v>
+      </c>
+      <c r="H12" s="3">
+        <v>427550</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9715097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2221763</v>
+      </c>
+      <c r="C13" s="3">
+        <v>848484</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1768303</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1682411</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2281066</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1472441</v>
+      </c>
+      <c r="H13" s="3">
+        <v>367450</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10641918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2069153</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1025455</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1705368</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1651877</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2332275</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1686936</v>
+      </c>
+      <c r="H14" s="3">
+        <v>136007</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10607071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20379107</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8153841</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15234914</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15288980</v>
+      </c>
+      <c r="F15" s="3">
+        <v>21820535</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14588651</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6086371</v>
+      </c>
+      <c r="I15" s="3">
+        <v>101552399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
